--- a/document/叨叨帮功能清单.xlsx
+++ b/document/叨叨帮功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>系统派单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时要判断是否有直接推荐人，有推荐人则要保存直接推荐关系、间接推荐关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享小程序时，链接带上加密的用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +523,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,7 +544,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -615,8 +629,12 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/叨叨帮功能清单.xlsx
+++ b/document/叨叨帮功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,14 @@
   </si>
   <si>
     <t>分享小程序时，链接带上加密的用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于有欺诈等行为的用户，可以冻结账号，冻结后不能使用小程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +224,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,6 +650,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
